--- a/public/exports/documento_formatoGV.xlsx
+++ b/public/exports/documento_formatoGV.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>REPORTE POR USUARIO</t>
-  </si>
-  <si>
     <t>Movimiento</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>REPORTE POR DOCUMENTO</t>
   </si>
 </sst>
 </file>
@@ -124,17 +124,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +528,7 @@
     <col min="4" max="4" width="13.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
@@ -545,21 +545,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
-        <v>0</v>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -567,29 +567,29 @@
     </row>
     <row r="6" spans="3:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
